--- a/credentials.xlsx
+++ b/credentials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\veeru\Downloads\roster\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\roster-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8095A82-6FD4-45FF-8758-CE8C7142F989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5C6A50-D141-4FD9-A0B4-C764121808C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -365,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -395,6 +395,14 @@
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
